--- a/data/Contact_Recreation/MangawheroatdsMaungarongoPa_08ae0e0ad3.xlsx
+++ b/data/Contact_Recreation/MangawheroatdsMaungarongoPa_08ae0e0ad3.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -601,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -632,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -846,7 +846,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -994,7 +994,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">

--- a/data/Contact_Recreation/MangawheroatdsMaungarongoPa_08ae0e0ad3.xlsx
+++ b/data/Contact_Recreation/MangawheroatdsMaungarongoPa_08ae0e0ad3.xlsx
@@ -49,214 +49,214 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>6890</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>3870</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>5790</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>884</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>441.0</t>
+  </si>
+  <si>
+    <t>388.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>272.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>6890.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>197.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>455.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>389.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>391.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>457.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>3870.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>5790.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>2282.0</t>
+  </si>
+  <si>
+    <t>960.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>884.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>1918.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>301.0</t>
+  </si>
+  <si>
+    <t>644.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>1004.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
